--- a/MAPA DE CHAMADAS - ALYSON LIBERAL.xlsx
+++ b/MAPA DE CHAMADAS - ALYSON LIBERAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyson.liberal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.104.10\ContactCenter_1\DsTV\DSTV_OUTBOUND\assistentes\Operadores da Manhã\Alyson Liberal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EB3731-9554-49AC-970D-156DB98A0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C43938-30E2-447C-B1D5-D3FA7CE80B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{514C4C77-2104-4E3D-9649-BEB76A3E524D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{514C4C77-2104-4E3D-9649-BEB76A3E524D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="25">
   <si>
     <t>SEGUNDA-FEIRA</t>
   </si>
@@ -96,12 +96,24 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>PRESENÇA TOTAL</t>
+  </si>
+  <si>
+    <t>FALTA TOTAL</t>
+  </si>
+  <si>
+    <t>PRESENÇA</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +155,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +206,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -455,16 +479,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -475,9 +530,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,9 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -517,33 +566,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,6 +590,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,47 +608,325 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -935,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3719627D-0975-4192-ADA2-3074C1CB14FF}">
-  <dimension ref="A2:I64"/>
+  <dimension ref="A2:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,1379 +1255,1670 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="44">
         <v>2021</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f>D5+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f>E5+1</f>
         <v>3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f>F5+1</f>
         <v>4</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <f>B10+1</f>
         <v>7</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <f t="shared" ref="D10:G10" si="0">C10+1</f>
         <v>8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <f>B15+1</f>
         <v>14</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <f t="shared" ref="D15:G15" si="1">C15+1</f>
         <v>15</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>136</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>126</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>73</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>136</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <v>145</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="19">
         <v>140</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="30">
         <f>SUM(B17,C17,D17,E17,F17,G17)</f>
         <v>756</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="30">
         <f>SUM(B18,C18,D18,E18,F18,G18)</f>
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <f>B17-125</f>
         <v>11</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <f t="shared" ref="C18:G18" si="2">C17-125</f>
         <v>1</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <f t="shared" si="2"/>
         <v>-52</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>20</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <f>B20+1</f>
         <v>21</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <f t="shared" ref="D20:G20" si="3">C20+1</f>
         <v>22</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>126</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="40">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="30">
         <f>SUM(F22,B22,C22,D22,E22,G22)</f>
         <v>126</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="30">
         <f>SUM(G23,F23,E23,D23,C23,B23)</f>
         <v>-624</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="12">
         <f>B22-125</f>
         <v>1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <f t="shared" ref="C23:G23" si="4">C22-125</f>
         <v>-125</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <f t="shared" si="4"/>
         <v>-125</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <f t="shared" si="4"/>
         <v>-125</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="12">
         <f t="shared" si="4"/>
         <v>-125</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="12">
         <f t="shared" si="4"/>
         <v>-125</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="6">
         <f>B25+1</f>
         <v>28</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <f>C25+1</f>
         <v>29</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <f t="shared" ref="E25:F25" si="5">D25+1</f>
         <v>30</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="38" t="s">
+      <c r="G25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="42">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="40">
         <f>SUM(F27,E27,E27,D27,C27,B27)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="40">
         <f>SUM(F28,E28,D28,C28,B28)</f>
         <v>-625</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f>B27-125</f>
         <v>-125</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <f t="shared" ref="C28:F28" si="6">C27-125</f>
         <v>-125</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <f t="shared" si="6"/>
         <v>-125</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <f t="shared" si="6"/>
         <v>-125</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <f t="shared" si="6"/>
         <v>-125</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
+      <c r="G28" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="49">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="32">
         <f>SUM(H27,H27,H22,H17,H17)</f>
         <v>1638</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="32">
         <f>SUM(I27,I22,I17)</f>
         <v>-1243</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="54">
         <v>2022</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="8">
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="6">
         <v>1</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="38" t="s">
+      <c r="I34" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="40">
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="30">
         <f>SUM(G36)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="30">
         <f>SUM(G37)</f>
-        <v>0</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-    </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="B37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="12">
+        <f>G36-125</f>
+        <v>-125</v>
+      </c>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B41" s="6">
         <v>3</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C41" s="6">
         <v>4</v>
       </c>
-      <c r="D39" s="8">
-        <f>C39+1</f>
+      <c r="D41" s="6">
+        <f>C41+1</f>
         <v>5</v>
       </c>
-      <c r="E39" s="8">
-        <f t="shared" ref="E39:G39" si="7">D39+1</f>
+      <c r="E41" s="6">
+        <f t="shared" ref="E41:G41" si="7">D41+1</f>
         <v>6</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F41" s="6">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G41" s="5">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="38" t="s">
+      <c r="I41" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="19" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C42" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D42" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E42" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F42" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="40">
-        <f>SUM(G41,G41,F41,E41,D41,B41,C41)</f>
+      <c r="B43" s="10">
+        <v>125</v>
+      </c>
+      <c r="C43" s="10">
+        <v>111</v>
+      </c>
+      <c r="D43" s="10">
+        <v>115</v>
+      </c>
+      <c r="E43" s="10">
+        <v>125</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="30">
+        <f>SUM(G43,G43,F43,E43,D43,B43,C43)</f>
+        <v>476</v>
+      </c>
+      <c r="I43" s="30">
+        <f>SUM(G44,F44,E44,D44,C44,B44)</f>
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="12">
+        <f>B43-125</f>
         <v>0</v>
       </c>
-      <c r="I41" s="40">
-        <f>SUM(G42,F42,E42,D42,C42,B42)</f>
+      <c r="C44" s="12">
+        <f t="shared" ref="C44:G44" si="8">C43-125</f>
+        <v>-14</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="8"/>
+        <v>-10</v>
+      </c>
+      <c r="E44" s="12">
+        <f>E43-125</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-    </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="F44" s="12">
+        <f t="shared" si="8"/>
+        <v>-125</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="8"/>
+        <v>-125</v>
+      </c>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="8">
-        <v>10</v>
-      </c>
-      <c r="C44" s="8">
-        <f>B44+1</f>
+      <c r="B48" s="6">
+        <v>10</v>
+      </c>
+      <c r="C48" s="6">
+        <f>B48+1</f>
         <v>11</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" ref="D44:G44" si="8">C44+1</f>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:G48" si="9">C48+1</f>
         <v>12</v>
       </c>
-      <c r="E44" s="8">
-        <f t="shared" si="8"/>
+      <c r="E48" s="6">
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="F44" s="8">
-        <f t="shared" si="8"/>
+      <c r="F48" s="6">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="G44" s="8">
-        <f t="shared" si="8"/>
+      <c r="G48" s="6">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H48" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="38" t="s">
+      <c r="I48" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="20" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C49" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D49" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E49" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F49" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G49" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="40">
-        <f>SUM(B46,C46,D46,E46,F46,G46)</f>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="30">
+        <f>SUM(B50,C50,D50,E50,F50,G50)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="40">
-        <f>SUM(B47,C47,D47,E47,F47,G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="8">
-        <v>17</v>
-      </c>
-      <c r="C49" s="8">
-        <f>B49+1</f>
-        <v>18</v>
-      </c>
-      <c r="D49" s="8">
-        <f t="shared" ref="D49:G49" si="9">C49+1</f>
-        <v>19</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
+      <c r="I50" s="30">
+        <f>SUM(B51,C51,D51,E51,F51,G51)</f>
+        <v>-750</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="12">
+        <f>B50-125</f>
+        <v>-125</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" ref="C51:G51" si="10">C50-125</f>
+        <v>-125</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="10"/>
+        <v>-125</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="10"/>
+        <v>-125</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="10"/>
+        <v>-125</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="10"/>
+        <v>-125</v>
+      </c>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="60"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="6">
+        <v>17</v>
+      </c>
+      <c r="C55" s="6">
+        <f>B55+1</f>
+        <v>18</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" ref="D55:G55" si="11">C55+1</f>
+        <v>19</v>
+      </c>
+      <c r="E55" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="G55" s="6">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="40">
-        <f>SUM(F51,B51,C51,D51,E51,G51)</f>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="30">
+        <f>SUM(F57,B57,C57,D57,E57,G57)</f>
         <v>0</v>
       </c>
-      <c r="I51" s="40">
-        <f>SUM(G52,F52,E52,D52,C52,B52)</f>
+      <c r="I57" s="30">
+        <f>SUM(G58,F58,E58,D58,C58,B58)</f>
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="12">
+        <f>B57-125</f>
+        <v>-125</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" ref="C58:G58" si="12">C57-125</f>
+        <v>-125</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="12"/>
+        <v>-125</v>
+      </c>
+      <c r="E58" s="12">
+        <f t="shared" si="12"/>
+        <v>-125</v>
+      </c>
+      <c r="F58" s="12">
+        <f t="shared" si="12"/>
+        <v>-125</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" si="12"/>
+        <v>-125</v>
+      </c>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="6">
+        <v>24</v>
+      </c>
+      <c r="C62" s="6">
+        <f>B62+1</f>
+        <v>25</v>
+      </c>
+      <c r="D62" s="6">
+        <f>C62+1</f>
+        <v>26</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" ref="E62:G62" si="13">D62+1</f>
+        <v>27</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="C63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="26">
+        <f>SUM(F64,E64,E64,D64,C64,B64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="26">
+        <f>SUM(F65,E65,D65,C65,B65,G65)</f>
+        <v>-750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-    </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B65" s="12">
+        <f>B64-125</f>
+        <v>-125</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" ref="C65:G65" si="14">C64-125</f>
+        <v>-125</v>
+      </c>
+      <c r="D65" s="12">
+        <f t="shared" si="14"/>
+        <v>-125</v>
+      </c>
+      <c r="E65" s="12">
+        <f t="shared" si="14"/>
+        <v>-125</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="14"/>
+        <v>-125</v>
+      </c>
+      <c r="G65" s="12">
+        <f t="shared" si="14"/>
+        <v>-125</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="60"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="8">
-        <v>24</v>
-      </c>
-      <c r="C54" s="8">
-        <f>B54+1</f>
-        <v>25</v>
-      </c>
-      <c r="D54" s="8">
-        <f>C54+1</f>
-        <v>26</v>
-      </c>
-      <c r="E54" s="8">
-        <f t="shared" ref="E54:G54" si="10">D54+1</f>
-        <v>27</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="G54" s="9">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="H54" s="52" t="s">
+      <c r="B69" s="6">
+        <v>31</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="52" t="s">
+      <c r="I69" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="19" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="43"/>
+      <c r="B70" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C70" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E70" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F70" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G70" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="53">
-        <f>SUM(F56,E56,E56,D56,C56,B56)</f>
+      <c r="B71" s="10"/>
+      <c r="C71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="26">
+        <f>SUM(B71)</f>
         <v>0</v>
       </c>
-      <c r="I56" s="53">
-        <f>SUM(F57,E57,D57,C57,B57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="I71" s="26">
+        <f>SUM(B72)</f>
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="8">
-        <v>31</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="53">
-        <f>SUM(B61)</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="53">
-        <f>SUM(B62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
+      <c r="B72" s="12">
+        <f>B71-125</f>
+        <v>-125</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="60"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="49">
-        <f>SUM(H36,H41,H46,H51,H56,H61)</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="49">
-        <f>SUM(I61,I56,I51,I36,I41,I46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="65">
+        <f>SUM(H36,H43,H50,H57,H64,H71)</f>
+        <v>476</v>
+      </c>
+      <c r="I75" s="65">
+        <f>SUM(I71,I64,I57,I36,I43,I50)</f>
+        <v>-2774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="H39:H40"/>
+  <mergeCells count="87">
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A29:G30"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A75:G76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:I72"/>
   </mergeCells>
+  <conditionalFormatting sqref="G38:G39">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="F">
+      <formula>NOT(ISERROR(SEARCH("F",G38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
